--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -967,7 +967,7 @@
         <v>0.9895641796951673</v>
       </c>
       <c r="I13">
-        <v>0.992531157775651</v>
+        <v>0.9925311577756508</v>
       </c>
       <c r="J13">
         <v>0.9922948834266736</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9860621560199286</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.150524100294847</v>
+      </c>
+      <c r="D16">
+        <v>1.829049254762831</v>
+      </c>
+      <c r="E16">
+        <v>0.7120580361936329</v>
+      </c>
+      <c r="F16">
+        <v>1.150524100294847</v>
+      </c>
+      <c r="G16">
+        <v>1.247245971645248</v>
+      </c>
+      <c r="H16">
+        <v>0.7068087551259379</v>
+      </c>
+      <c r="I16">
+        <v>0.8241590955535638</v>
+      </c>
+      <c r="J16">
+        <v>1.829049254762831</v>
+      </c>
+      <c r="K16">
+        <v>1.270553645478232</v>
+      </c>
+      <c r="L16">
+        <v>1.21053887288654</v>
+      </c>
+      <c r="M16">
+        <v>1.07830753559601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.150524100294847</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
@@ -970,7 +970,7 @@
         <v>0.9895641796951673</v>
       </c>
       <c r="I13">
-        <v>0.9925311577756508</v>
+        <v>0.992531157775651</v>
       </c>
       <c r="J13">
         <v>0.9922948834266736</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2339599999999992</v>
+        <v>1.150524100294847</v>
       </c>
       <c r="D10">
-        <v>2.493184000000007</v>
+        <v>1.829049254762831</v>
       </c>
       <c r="E10">
-        <v>0.8648800000000001</v>
+        <v>0.7120580361936329</v>
       </c>
       <c r="F10">
-        <v>0.2339599999999992</v>
+        <v>1.150524100294847</v>
       </c>
       <c r="G10">
-        <v>1.652984</v>
+        <v>1.247245971645248</v>
       </c>
       <c r="H10">
-        <v>0.797036</v>
+        <v>0.7068087551259379</v>
       </c>
       <c r="I10">
-        <v>0.6612479999999989</v>
+        <v>0.8241590955535638</v>
       </c>
       <c r="J10">
-        <v>2.493184000000007</v>
+        <v>1.829049254762831</v>
       </c>
       <c r="K10">
-        <v>1.679032000000003</v>
+        <v>1.270553645478232</v>
       </c>
       <c r="L10">
-        <v>0.9564960000000012</v>
+        <v>1.21053887288654</v>
       </c>
       <c r="M10">
-        <v>1.117215333333334</v>
+        <v>1.07830753559601</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.14</v>
+        <v>0.7808619569850931</v>
       </c>
       <c r="D11">
-        <v>3.193349999999992</v>
+        <v>1.078298857962514</v>
       </c>
       <c r="E11">
-        <v>0.5870999999999996</v>
+        <v>1.16017724347034</v>
       </c>
       <c r="F11">
-        <v>0.14</v>
+        <v>0.7808619569850931</v>
       </c>
       <c r="G11">
-        <v>2.190149999999999</v>
+        <v>0.7368985935270425</v>
       </c>
       <c r="H11">
-        <v>0.04</v>
+        <v>1.869190188927132</v>
       </c>
       <c r="I11">
-        <v>0.4352749999999997</v>
+        <v>1.02726999416264</v>
       </c>
       <c r="J11">
-        <v>3.193349999999992</v>
+        <v>1.078298857962514</v>
       </c>
       <c r="K11">
-        <v>1.890224999999996</v>
+        <v>1.119238050716427</v>
       </c>
       <c r="L11">
-        <v>1.015112499999998</v>
+        <v>0.95005000385076</v>
       </c>
       <c r="M11">
-        <v>1.097645833333332</v>
+        <v>1.108782805839127</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4942918554624</v>
+        <v>0.7785235369482505</v>
       </c>
       <c r="D12">
-        <v>2.279060094463996</v>
+        <v>1.082344263676262</v>
       </c>
       <c r="E12">
-        <v>0.7546868439040008</v>
+        <v>1.160283320354419</v>
       </c>
       <c r="F12">
-        <v>0.4942918554624</v>
+        <v>0.7785235369482505</v>
       </c>
       <c r="G12">
-        <v>1.685402653183997</v>
+        <v>0.7382705861495941</v>
       </c>
       <c r="H12">
-        <v>0.4354656385024008</v>
+        <v>1.869500576679834</v>
       </c>
       <c r="I12">
-        <v>0.6715683586048004</v>
+        <v>1.026395048569328</v>
       </c>
       <c r="J12">
-        <v>2.279060094463996</v>
+        <v>1.082344263676262</v>
       </c>
       <c r="K12">
-        <v>1.516873469183998</v>
+        <v>1.12131379201534</v>
       </c>
       <c r="L12">
-        <v>1.005582662323199</v>
+        <v>0.9499186644817955</v>
       </c>
       <c r="M12">
-        <v>1.053412574020266</v>
+        <v>1.109219555396281</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9946764934801549</v>
+        <v>0.7801794990973887</v>
       </c>
       <c r="D13">
-        <v>0.9922948834266736</v>
+        <v>1.080257672604753</v>
       </c>
       <c r="E13">
-        <v>0.9926651705636437</v>
+        <v>1.160202770947044</v>
       </c>
       <c r="F13">
-        <v>0.9946764934801549</v>
+        <v>0.7801794990973887</v>
       </c>
       <c r="G13">
-        <v>0.9972566931229354</v>
+        <v>0.7370355190737976</v>
       </c>
       <c r="H13">
-        <v>0.9895641796951673</v>
+        <v>1.868846110719271</v>
       </c>
       <c r="I13">
-        <v>0.992531157775651</v>
+        <v>1.0271040320475</v>
       </c>
       <c r="J13">
-        <v>0.9922948834266736</v>
+        <v>1.080257672604753</v>
       </c>
       <c r="K13">
-        <v>0.9924800269951586</v>
+        <v>1.120230221775898</v>
       </c>
       <c r="L13">
-        <v>0.9935782602376568</v>
+        <v>0.9502048604366435</v>
       </c>
       <c r="M13">
-        <v>0.9931647630107044</v>
+        <v>1.108937600748292</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.04013452157628</v>
+        <v>0.2339599999999992</v>
       </c>
       <c r="D14">
-        <v>0.8980004068819801</v>
+        <v>2.493184000000007</v>
       </c>
       <c r="E14">
-        <v>1.008386702998106</v>
+        <v>0.8648800000000001</v>
       </c>
       <c r="F14">
-        <v>1.04013452157628</v>
+        <v>0.2339599999999992</v>
       </c>
       <c r="G14">
-        <v>0.9521977871336532</v>
+        <v>1.652984</v>
       </c>
       <c r="H14">
-        <v>1.036819302092788</v>
+        <v>0.797036</v>
       </c>
       <c r="I14">
-        <v>1.004559305719048</v>
+        <v>0.6612479999999989</v>
       </c>
       <c r="J14">
-        <v>0.8980004068819801</v>
+        <v>2.493184000000007</v>
       </c>
       <c r="K14">
-        <v>0.953193554940043</v>
+        <v>1.679032000000003</v>
       </c>
       <c r="L14">
-        <v>0.9966640382581615</v>
+        <v>0.9564960000000012</v>
       </c>
       <c r="M14">
-        <v>0.9900163377336426</v>
+        <v>1.117215333333334</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.048917799984614</v>
+        <v>0.14</v>
       </c>
       <c r="D15">
-        <v>0.7663809061362939</v>
+        <v>3.193349999999992</v>
       </c>
       <c r="E15">
-        <v>1.045162899688442</v>
+        <v>0.5870999999999996</v>
       </c>
       <c r="F15">
-        <v>1.048917799984614</v>
+        <v>0.14</v>
       </c>
       <c r="G15">
-        <v>0.8618694195706434</v>
+        <v>2.190149999999999</v>
       </c>
       <c r="H15">
-        <v>1.141303733773263</v>
+        <v>0.04</v>
       </c>
       <c r="I15">
-        <v>1.052738176966316</v>
+        <v>0.4352749999999997</v>
       </c>
       <c r="J15">
-        <v>0.7663809061362939</v>
+        <v>3.193349999999992</v>
       </c>
       <c r="K15">
-        <v>0.9057719029123681</v>
+        <v>1.890224999999996</v>
       </c>
       <c r="L15">
-        <v>0.9773448514484913</v>
+        <v>1.015112499999998</v>
       </c>
       <c r="M15">
-        <v>0.9860621560199286</v>
+        <v>1.097645833333332</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.150524100294847</v>
+        <v>0.4942918554624</v>
       </c>
       <c r="D16">
-        <v>1.829049254762831</v>
+        <v>2.279060094463996</v>
       </c>
       <c r="E16">
-        <v>0.7120580361936329</v>
+        <v>0.7546868439040008</v>
       </c>
       <c r="F16">
-        <v>1.150524100294847</v>
+        <v>0.4942918554624</v>
       </c>
       <c r="G16">
-        <v>1.247245971645248</v>
+        <v>1.685402653183997</v>
       </c>
       <c r="H16">
-        <v>0.7068087551259379</v>
+        <v>0.4354656385024008</v>
       </c>
       <c r="I16">
-        <v>0.8241590955535638</v>
+        <v>0.6715683586048004</v>
       </c>
       <c r="J16">
-        <v>1.829049254762831</v>
+        <v>2.279060094463996</v>
       </c>
       <c r="K16">
-        <v>1.270553645478232</v>
+        <v>1.516873469183998</v>
       </c>
       <c r="L16">
-        <v>1.21053887288654</v>
+        <v>1.005582662323199</v>
       </c>
       <c r="M16">
-        <v>1.07830753559601</v>
+        <v>1.053412574020266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9946764934801549</v>
+      </c>
+      <c r="D17">
+        <v>0.9922948834266736</v>
+      </c>
+      <c r="E17">
+        <v>0.9926651705636437</v>
+      </c>
+      <c r="F17">
+        <v>0.9946764934801549</v>
+      </c>
+      <c r="G17">
+        <v>0.9972566931229354</v>
+      </c>
+      <c r="H17">
+        <v>0.9895641796951673</v>
+      </c>
+      <c r="I17">
+        <v>0.9925311577756508</v>
+      </c>
+      <c r="J17">
+        <v>0.9922948834266736</v>
+      </c>
+      <c r="K17">
+        <v>0.9924800269951586</v>
+      </c>
+      <c r="L17">
+        <v>0.9935782602376568</v>
+      </c>
+      <c r="M17">
+        <v>0.9931647630107044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.04013452157628</v>
+      </c>
+      <c r="D18">
+        <v>0.8980004068819801</v>
+      </c>
+      <c r="E18">
+        <v>1.008386702998106</v>
+      </c>
+      <c r="F18">
+        <v>1.04013452157628</v>
+      </c>
+      <c r="G18">
+        <v>0.9521977871336532</v>
+      </c>
+      <c r="H18">
+        <v>1.036819302092788</v>
+      </c>
+      <c r="I18">
+        <v>1.004559305719048</v>
+      </c>
+      <c r="J18">
+        <v>0.8980004068819801</v>
+      </c>
+      <c r="K18">
+        <v>0.953193554940043</v>
+      </c>
+      <c r="L18">
+        <v>0.9966640382581615</v>
+      </c>
+      <c r="M18">
+        <v>0.9900163377336426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.048917799984614</v>
+      </c>
+      <c r="D19">
+        <v>0.7663809061362939</v>
+      </c>
+      <c r="E19">
+        <v>1.045162899688442</v>
+      </c>
+      <c r="F19">
+        <v>1.048917799984614</v>
+      </c>
+      <c r="G19">
+        <v>0.8618694195706434</v>
+      </c>
+      <c r="H19">
+        <v>1.141303733773263</v>
+      </c>
+      <c r="I19">
+        <v>1.052738176966316</v>
+      </c>
+      <c r="J19">
+        <v>0.7663809061362939</v>
+      </c>
+      <c r="K19">
+        <v>0.9057719029123681</v>
+      </c>
+      <c r="L19">
+        <v>0.9773448514484913</v>
+      </c>
+      <c r="M19">
+        <v>0.9860621560199286</v>
       </c>
     </row>
   </sheetData>
